--- a/DummyData/Projects.xlsx
+++ b/DummyData/Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11505"/>
+    <workbookView windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>ass_id</t>
   </si>
   <si>
-    <t>ass_red_id</t>
-  </si>
-  <si>
-    <t>sup_red_id</t>
+    <t>ass_res_id</t>
+  </si>
+  <si>
+    <t>sup_res_id</t>
   </si>
   <si>
     <t>title</t>
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -409,38 +409,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -462,8 +448,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -478,76 +546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,7 +562,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,19 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,25 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,7 +628,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,49 +664,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +682,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,13 +712,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,13 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,6 +753,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -771,19 +789,42 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -806,204 +847,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1027,9 +1027,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1353,10 +1350,10 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
   <cols>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="10.4" customWidth="1"/>
@@ -1406,7 +1403,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3">

--- a/DummyData/Projects.xlsx
+++ b/DummyData/Projects.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12585"/>
+    <workbookView windowWidth="28800" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -378,10 +378,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -410,14 +410,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -433,23 +447,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +463,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -495,21 +510,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,32 +530,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -562,7 +562,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,19 +670,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -598,151 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -765,15 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -790,16 +781,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -821,26 +812,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,153 +827,179 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,11 +1349,11 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
   <cols>
     <col min="7" max="7" width="10.5" customWidth="1"/>
     <col min="8" max="8" width="10.4" customWidth="1"/>
@@ -1607,7 +1607,7 @@
         <v>25</v>
       </c>
       <c r="M6">
-        <v>80000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1894,7 +1894,7 @@
         <v>45084</v>
       </c>
       <c r="M13">
-        <v>10000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1935,7 +1935,7 @@
         <v>45542</v>
       </c>
       <c r="M14">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1976,7 +1976,7 @@
         <v>44</v>
       </c>
       <c r="M15">
-        <v>65000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2017,7 +2017,7 @@
         <v>44659</v>
       </c>
       <c r="M16">
-        <v>72000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2058,7 +2058,7 @@
         <v>48</v>
       </c>
       <c r="M17">
-        <v>87000</v>
+        <v>125000</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2099,7 +2099,7 @@
         <v>45575</v>
       </c>
       <c r="M18">
-        <v>91000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2140,7 +2140,7 @@
         <v>52</v>
       </c>
       <c r="M19">
-        <v>93000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2181,7 +2181,7 @@
         <v>45234</v>
       </c>
       <c r="M20">
-        <v>98000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2304,7 +2304,7 @@
         <v>46179</v>
       </c>
       <c r="M23">
-        <v>67000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2386,7 +2386,7 @@
         <v>64</v>
       </c>
       <c r="M25">
-        <v>40000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2427,7 +2427,7 @@
         <v>45667</v>
       </c>
       <c r="M26">
-        <v>23000</v>
+        <v>230000</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2468,7 +2468,7 @@
         <v>44689</v>
       </c>
       <c r="M27">
-        <v>41000</v>
+        <v>410000</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2509,7 +2509,7 @@
         <v>69</v>
       </c>
       <c r="M28">
-        <v>75000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2550,7 +2550,7 @@
         <v>72</v>
       </c>
       <c r="M29">
-        <v>28000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2591,7 +2591,7 @@
         <v>75</v>
       </c>
       <c r="M30">
-        <v>45000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2632,7 +2632,7 @@
         <v>78</v>
       </c>
       <c r="M31">
-        <v>54000</v>
+        <v>540000</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2714,7 +2714,7 @@
         <v>82</v>
       </c>
       <c r="M33">
-        <v>61000</v>
+        <v>610000</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2755,7 +2755,7 @@
         <v>44659</v>
       </c>
       <c r="M34">
-        <v>90000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2837,7 +2837,7 @@
         <v>44503</v>
       </c>
       <c r="M36">
-        <v>72000</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2878,7 +2878,7 @@
         <v>44600</v>
       </c>
       <c r="M37">
-        <v>96000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2919,7 +2919,7 @@
         <v>89</v>
       </c>
       <c r="M38">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2960,7 +2960,7 @@
         <v>45968</v>
       </c>
       <c r="M39">
-        <v>14000</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3001,7 +3001,7 @@
         <v>93</v>
       </c>
       <c r="M40">
-        <v>17000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3042,7 +3042,7 @@
         <v>96</v>
       </c>
       <c r="M41">
-        <v>51000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3083,7 +3083,7 @@
         <v>99</v>
       </c>
       <c r="M42">
-        <v>60000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3124,7 +3124,7 @@
         <v>102</v>
       </c>
       <c r="M43">
-        <v>30000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3165,7 +3165,7 @@
         <v>105</v>
       </c>
       <c r="M44">
-        <v>25000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3206,7 +3206,7 @@
         <v>89</v>
       </c>
       <c r="M45">
-        <v>10000</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3247,7 +3247,7 @@
         <v>110</v>
       </c>
       <c r="M46">
-        <v>78000</v>
+        <v>250000</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3288,7 +3288,7 @@
         <v>46149</v>
       </c>
       <c r="M47">
-        <v>80000</v>
+        <v>190000</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3329,7 +3329,7 @@
         <v>45237</v>
       </c>
       <c r="M48">
-        <v>85000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3370,7 +3370,7 @@
         <v>45634</v>
       </c>
       <c r="M49">
-        <v>76000</v>
+        <v>760000</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3411,7 +3411,7 @@
         <v>115</v>
       </c>
       <c r="M50">
-        <v>37000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3452,7 +3452,7 @@
         <v>118</v>
       </c>
       <c r="M51">
-        <v>48000</v>
+        <v>480000</v>
       </c>
     </row>
     <row r="52" spans="1:12">

--- a/DummyData/Projects.xlsx
+++ b/DummyData/Projects.xlsx
@@ -64,7 +64,7 @@
     <t>20/02/2019</t>
   </si>
   <si>
-    <t>20/22021</t>
+    <t>20/2/2021</t>
   </si>
   <si>
     <t>Proj3</t>
@@ -379,9 +379,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -409,8 +409,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,15 +432,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -441,14 +443,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,19 +463,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -492,17 +500,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,39 +523,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -562,7 +562,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,25 +658,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,7 +712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,43 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,73 +742,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -753,6 +753,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -781,6 +796,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -795,26 +825,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,26 +847,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,148 +858,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1349,8 +1349,8 @@
   <sheetPr/>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
